--- a/other/eng.xlsx
+++ b/other/eng.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>a (1)</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>igh</t>
-  </si>
-  <si>
-    <t>ai</t>
   </si>
   <si>
     <t>o + ld</t>
@@ -765,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G48"/>
+  <dimension ref="B1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:G48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,683 +777,810 @@
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.3744130344894957</v>
+        <f t="shared" ref="B2:B47" ca="1" si="0">RAND()</f>
+        <v>0.65419919131569237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.62948118883644311</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79342761548840823</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.51379758209533632</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69169228934586646</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <f ca="1">RAND()</f>
-        <v>8.5103567087426724E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57371248558259347</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.59092561866511728</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7490007345099623</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.61016542161435283</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.46555682486520822</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.46405550075330049</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14481688846778107</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.48168692170682592</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8032049824364709E-2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <f ca="1">RAND()</f>
-        <v>5.7684230964518135E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62390237925094916</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.90717815795786394</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.8421097907697801E-2</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.63463566470433852</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19717578976983885</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.94157343010553385</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39507616270875912</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <f ca="1">RAND()</f>
-        <v>3.1206588984543315E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28073939455533303</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.39354576999664381</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32746643309109358</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <f ca="1">RAND()</f>
-        <v>9.0656833384006097E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.64956203437501137</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.92874028224331595</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83645314897614698</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.58335557168337138</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80436553153494983</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.53250543541132922</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.2693517354168774</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="2" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.72542495341054558</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74099606912920224</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.22748066356830765</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27558114611636264</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.90247949321444332</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39903271516497962</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.86060911532808804</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31293335280414358</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.87332079451506806</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13196317703477833</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.13584102869661763</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23478657052516816</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
-        <f ca="1">RAND()</f>
-        <v>4.7544259025550484E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22710399156198136</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.56670685779828978</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75291078409552015</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.67966732233568228</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39588797669615428</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.24419989893267335</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95061222156726399</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.56797649807256612</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1423005164551151</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.35566639921828347</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8503171281675916E-2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
-        <f ca="1">RAND()</f>
-        <v>3.1918756846197827E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45163291069279288</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.76269421405340188</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.97459805244178177</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.90514644209117645</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39484884407831067</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.78572328970565231</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60786357089503207</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.93345237209374388</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69595204951697931</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.59736655834011654</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95448309122685715</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="2" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.71275089124842994</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39001989540357884</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.66865613299680116</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.94176739590007963</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="2" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.33817039200980981</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47527163314661192</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.30960123867873757</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1364582649518612</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.40212437427829451</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4922421568664529</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.33455724492207983</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.99331565349840922</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
-        <f ca="1">RAND()</f>
-        <v>7.7408438706987992E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28449720194721406</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="2" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
-        <f ca="1">RAND()</f>
-        <v>3.7554247358403403E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56986560670525721</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.83500626116713006</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86230887000723921</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.15543098456523785</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93031120443957294</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B48" s="1">
-        <f ca="1">RAND()</f>
-        <v>7.5902833516253931E-2</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="4"/>
+      <c r="H47" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="B2:D48">
-    <sortCondition descending="1" ref="B2:B48"/>
+  <sortState ref="B2:H47">
+    <sortCondition descending="1" ref="B2"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
